--- a/Project Management/FLARE_GanttChart_Schneeberger.xlsx
+++ b/Project Management/FLARE_GanttChart_Schneeberger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2762ed547f159086/Dokumente/AppliedGeoinfo/SoSe_25/I3/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F23990A2-60F1-45DC-9F57-1296022A224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09AAFCA5-74B8-4CB6-806C-058B46786AEC}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F23990A2-60F1-45DC-9F57-1296022A224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{564EC734-DDE8-4E75-B03C-30877D38800E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{757E9FA1-A54D-4E3D-BEE9-04EAF8A9528C}"/>
   </bookViews>
@@ -1089,6 +1089,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1101,38 +1131,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,13 +1215,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>138593</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>146213</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -1239,7 +1239,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9215918" y="1819275"/>
+          <a:off x="10397018" y="1819275"/>
           <a:ext cx="7620" cy="4874895"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1600,10 +1600,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -1666,30 +1666,30 @@
       <c r="C11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="75" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="75" t="s">
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="75" t="s">
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="15"/>
@@ -1745,13 +1745,13 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="80">
+      <c r="A13" s="77">
         <v>0</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="41"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -1770,7 +1770,7 @@
       <c r="S13" s="43"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="81"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="S14" s="47"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="81"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="S15" s="54"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A16" s="82"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="23" t="s">
         <v>10</v>
       </c>
@@ -1857,13 +1857,13 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="80">
+      <c r="A17" s="77">
         <v>1</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
       <c r="F17" s="58"/>
@@ -1882,7 +1882,7 @@
       <c r="S17" s="54"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="81"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="25" t="s">
         <v>12</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="S18" s="47"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="81"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="27" t="s">
         <v>13</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="S19" s="54"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="81"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="27" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="S20" s="54"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A21" s="82"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="31" t="s">
         <v>15</v>
       </c>
@@ -1988,13 +1988,13 @@
       <c r="S21" s="63"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="85">
+      <c r="A22" s="89">
         <v>2</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="50"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
@@ -2013,7 +2013,7 @@
       <c r="S22" s="54"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="81"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="25" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="S23" s="47"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="81"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="25" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="81"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="25" t="s">
         <v>23</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A26" s="82"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="25" t="s">
         <v>51</v>
       </c>
@@ -2120,13 +2120,13 @@
       <c r="S26" s="63"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="81">
+      <c r="A27" s="78">
         <v>3</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="48"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
@@ -2145,7 +2145,7 @@
       <c r="S27" s="47"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="81"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="25" t="s">
         <v>18</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="S28" s="47"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="81"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="25" t="s">
         <v>19</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="S29" s="54"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A30" s="81"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="31" t="s">
         <v>20</v>
       </c>
@@ -2224,13 +2224,13 @@
       <c r="S30" s="63"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="80">
+      <c r="A31" s="77">
         <v>4</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="48"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
@@ -2249,7 +2249,7 @@
       <c r="S31" s="66"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="81"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="25" t="s">
         <v>30</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="S32" s="47"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="81"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="25" t="s">
         <v>31</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="S33" s="54"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A34" s="82"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="31" t="s">
         <v>32</v>
       </c>
@@ -2329,21 +2329,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
